--- a/学习计划合并.xlsx
+++ b/学习计划合并.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yan/Desktop/新python/进度计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="28800" windowHeight="16160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="晏玉龙" sheetId="1" r:id="rId1"/>
     <sheet name="杨英俊" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -451,8 +451,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -719,6 +719,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1023,11 +1026,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -1037,7 +1040,7 @@
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1051,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1057,7 +1060,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1066,7 +1069,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="38" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="38" customHeight="1">
       <c r="A5" s="5">
         <v>1.2</v>
       </c>
@@ -1108,7 +1111,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="38" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1123,7 +1126,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="44" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1138,7 +1141,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="44" customHeight="1">
       <c r="A8" s="5">
         <v>1.6</v>
       </c>
@@ -1159,7 +1162,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="44" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1174,7 +1177,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="46" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1189,7 +1192,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="46" customHeight="1">
       <c r="A11" s="2">
         <v>1.9</v>
       </c>
@@ -1210,7 +1213,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="42" customHeight="1">
       <c r="A12" s="5">
         <v>1.1299999999999999</v>
       </c>
@@ -1231,7 +1234,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="42" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5" t="s">
@@ -1248,7 +1251,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="42" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1263,7 +1266,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="37" customHeight="1">
       <c r="A15" s="5">
         <v>1.1599999999999999</v>
       </c>
@@ -1284,7 +1287,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1299,7 +1302,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="38" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1314,7 +1317,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="33" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -1329,7 +1332,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="34" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
@@ -1346,7 +1349,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="34" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1367,7 +1370,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="36" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1382,7 +1385,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="28" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1397,7 +1400,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="25" customHeight="1">
       <c r="A23" s="5">
         <v>1.23</v>
       </c>
@@ -1418,7 +1421,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="28" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1433,7 +1436,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="28" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1448,7 +1451,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="28" customHeight="1">
       <c r="A26" s="5">
         <v>1.27</v>
       </c>
@@ -1469,7 +1472,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="31" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1484,7 +1487,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1499,7 +1502,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="34" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -1514,7 +1517,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="34" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5" t="s">
@@ -1531,7 +1534,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="33" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1546,7 +1549,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="29" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -1567,7 +1570,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="32" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1582,7 +1585,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="31" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1597,7 +1600,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="31" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1614,6 +1617,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C18"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
@@ -1622,25 +1644,6 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,11 +1654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -1665,7 +1668,7 @@
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>85</v>
       </c>
@@ -1676,7 +1679,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1685,7 +1688,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1694,7 +1697,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="38" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="38" customHeight="1">
       <c r="A5" s="5">
         <v>1.2</v>
       </c>
@@ -1736,7 +1739,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="38" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1751,7 +1754,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="44" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1766,7 +1769,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="44" customHeight="1">
       <c r="A8" s="5">
         <v>1.6</v>
       </c>
@@ -1787,7 +1790,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="44" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1802,7 +1805,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="44" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1817,7 +1820,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="46" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1832,7 +1835,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="46" customHeight="1">
       <c r="A12" s="5">
         <v>1.9</v>
       </c>
@@ -1853,7 +1856,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="46" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1868,7 +1871,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="46" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1883,7 +1886,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="42" customHeight="1">
       <c r="A15" s="5">
         <v>1.1299999999999999</v>
       </c>
@@ -1904,7 +1907,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="42" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1919,7 +1922,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="42" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1934,7 +1937,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="37" customHeight="1">
       <c r="A18" s="5">
         <v>1.1599999999999999</v>
       </c>
@@ -1955,7 +1958,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="33" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1970,7 +1973,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="34" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1994,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="34" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2006,7 +2009,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="34" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2021,7 +2024,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="36" customHeight="1">
       <c r="A23" s="6">
         <v>1.23</v>
       </c>
@@ -2042,7 +2045,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="25" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2057,7 +2060,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="28" customHeight="1">
       <c r="A25" s="4">
         <v>1.27</v>
       </c>
@@ -2078,7 +2081,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="29" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -2099,7 +2102,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="32" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2116,6 +2119,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A23:A24"/>
@@ -2125,11 +2138,6 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A18:A19"/>
@@ -2137,11 +2145,6 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划合并.xlsx
+++ b/学习计划合并.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yan/Desktop/新python/进度计划/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yan/StudyTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -649,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1109,7 +1112,9 @@
       <c r="F5" s="1">
         <v>161</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="38" customHeight="1">
       <c r="A6" s="6"/>
@@ -1124,7 +1129,9 @@
       <c r="F6" s="1">
         <v>191</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="20">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="44" customHeight="1">
       <c r="A7" s="7"/>
@@ -1617,25 +1624,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C18"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
@@ -1644,6 +1632,25 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2119,31 +2126,31 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A20:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/学习计划合并.xlsx
+++ b/学习计划合并.xlsx
@@ -663,6 +663,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -709,9 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1044,33 +1044,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="38" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -1079,10 +1079,10 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,13 +1094,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="38" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>1.2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1112,14 +1112,14 @@
       <c r="F5" s="1">
         <v>161</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1129,14 +1129,14 @@
       <c r="F6" s="1">
         <v>191</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="5">
         <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="44" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1146,16 +1146,18 @@
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="44" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>1.6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1170,9 +1172,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="44" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1185,9 +1187,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="46" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1221,10 +1223,10 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="42" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1242,9 +1244,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="42" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1259,9 +1261,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="42" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1274,13 +1276,13 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="37" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>1.1599999999999999</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1295,9 +1297,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1310,9 +1312,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="38" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1325,9 +1327,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1340,8 +1342,8 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="34" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1357,13 +1359,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="34" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1378,9 +1380,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="36" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1393,9 +1395,9 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="28" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1408,13 +1410,13 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>1.23</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1429,9 +1431,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="28" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
@@ -1444,9 +1446,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="28" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1459,13 +1461,13 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="28" customHeight="1">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>1.27</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1480,9 +1482,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="31" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="2" t="s">
         <v>41</v>
       </c>
@@ -1495,9 +1497,9 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="2" t="s">
         <v>42</v>
       </c>
@@ -1510,9 +1512,9 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="34" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
         <v>43</v>
       </c>
@@ -1525,9 +1527,9 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="34" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1542,9 +1544,9 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="2" t="s">
         <v>46</v>
       </c>
@@ -1557,13 +1559,13 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="29" customHeight="1">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1578,9 +1580,9 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="32" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1593,9 +1595,9 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="31" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1608,9 +1610,9 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="31" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1624,6 +1626,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C18"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
@@ -1632,25 +1653,6 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1661,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1676,33 +1678,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="38" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -1711,10 +1713,10 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1726,13 +1728,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="38" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>1.2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1747,9 +1749,9 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="38" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
         <v>56</v>
       </c>
@@ -1762,9 +1764,9 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="44" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
@@ -1777,13 +1779,13 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="44" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>1.6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1798,9 +1800,9 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="44" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1813,9 +1815,9 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="44" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="4" t="s">
         <v>60</v>
       </c>
@@ -1828,9 +1830,9 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="46" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
         <v>61</v>
       </c>
@@ -1843,13 +1845,13 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="46" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>1.9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1864,9 +1866,9 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="46" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="4" t="s">
         <v>63</v>
       </c>
@@ -1879,9 +1881,9 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="46" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
         <v>64</v>
       </c>
@@ -1894,13 +1896,13 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="42" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1915,9 +1917,9 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="42" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="4" t="s">
         <v>80</v>
       </c>
@@ -1930,9 +1932,9 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="42" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="4" t="s">
         <v>81</v>
       </c>
@@ -1945,13 +1947,13 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="37" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>1.1599999999999999</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1966,9 +1968,9 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="33" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3" t="s">
         <v>66</v>
       </c>
@@ -1981,13 +1983,13 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="34" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2002,9 +2004,9 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="34" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="4" t="s">
         <v>71</v>
       </c>
@@ -2017,9 +2019,9 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="34" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="4" t="s">
         <v>83</v>
       </c>
@@ -2032,13 +2034,13 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="36" customHeight="1">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>1.23</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2053,9 +2055,9 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="4" t="s">
         <v>74</v>
       </c>
@@ -2089,13 +2091,13 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="29" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2110,9 +2112,9 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="32" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
         <v>78</v>
       </c>
@@ -2126,23 +2128,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="A26:A27"/>
@@ -2152,6 +2137,23 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
